--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H2">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I2">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J2">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>0.2594778836385</v>
+        <v>1.179518837196</v>
       </c>
       <c r="R2">
-        <v>1.037911534554</v>
+        <v>4.718075348784</v>
       </c>
       <c r="S2">
-        <v>0.0006294418622639924</v>
+        <v>0.007821425029453532</v>
       </c>
       <c r="T2">
-        <v>0.0005647173206148342</v>
+        <v>0.007155765857732144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H3">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I3">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J3">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>0.1556480050768334</v>
+        <v>0.1148057162035</v>
       </c>
       <c r="R3">
-        <v>0.933888030461</v>
+        <v>0.6888342972210001</v>
       </c>
       <c r="S3">
-        <v>0.000377571177934106</v>
+        <v>0.0007612801711357347</v>
       </c>
       <c r="T3">
-        <v>0.0005081191688873771</v>
+        <v>0.001044734681263483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H4">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I4">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J4">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>0.003617828562</v>
+        <v>0.003475999691500001</v>
       </c>
       <c r="R4">
-        <v>0.021706971372</v>
+        <v>0.020855998149</v>
       </c>
       <c r="S4">
-        <v>8.776134271966371E-06</v>
+        <v>2.304945892521864E-05</v>
       </c>
       <c r="T4">
-        <v>1.181054676025569E-05</v>
+        <v>3.163167784550179E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H5">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I5">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J5">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>5.28479318599925</v>
+        <v>4.784837274378</v>
       </c>
       <c r="R5">
-        <v>21.139172743997</v>
+        <v>19.139349097512</v>
       </c>
       <c r="S5">
-        <v>0.01281985970453576</v>
+        <v>0.03172840046255534</v>
       </c>
       <c r="T5">
-        <v>0.01150161318626624</v>
+        <v>0.0290280868122403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,46 +791,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H6">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I6">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J6">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>0.870179697404</v>
+        <v>0.0148604197525</v>
       </c>
       <c r="R6">
-        <v>5.221078184424</v>
+        <v>0.089162518515</v>
       </c>
       <c r="S6">
-        <v>0.002110883292085793</v>
+        <v>9.853989214508434E-05</v>
       </c>
       <c r="T6">
-        <v>0.002840736599285847</v>
+        <v>0.0001352301645507817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H7">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I7">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J7">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>0.008075852263166667</v>
+        <v>0.003786109264</v>
       </c>
       <c r="R7">
-        <v>0.04845511357900001</v>
+        <v>0.022716655584</v>
       </c>
       <c r="S7">
-        <v>1.959041524702136E-05</v>
+        <v>2.510580486539085E-05</v>
       </c>
       <c r="T7">
-        <v>2.636394432419394E-05</v>
+        <v>3.445368215065559E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H8">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I8">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J8">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>0.7653684522019999</v>
+        <v>4.716883365338667</v>
       </c>
       <c r="R8">
-        <v>4.592210713211999</v>
+        <v>28.301300192032</v>
       </c>
       <c r="S8">
-        <v>0.001856632007001062</v>
+        <v>0.03127779603959169</v>
       </c>
       <c r="T8">
-        <v>0.002498576076407304</v>
+        <v>0.042923748069383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H9">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I9">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J9">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
-        <v>0.4591068458842222</v>
+        <v>0.4591068458842223</v>
       </c>
       <c r="R9">
-        <v>4.131961612957999</v>
+        <v>4.131961612958</v>
       </c>
       <c r="S9">
-        <v>0.00111370211595419</v>
+        <v>0.003044351359515955</v>
       </c>
       <c r="T9">
-        <v>0.002248159128471069</v>
+        <v>0.006266824425151488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,13 +1042,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H10">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I10">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J10">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>0.010671321224</v>
+        <v>0.01390048603355556</v>
       </c>
       <c r="R10">
-        <v>0.09604189101599998</v>
+        <v>0.125104374302</v>
       </c>
       <c r="S10">
-        <v>2.588650797464419E-05</v>
+        <v>9.217454266595528E-05</v>
       </c>
       <c r="T10">
-        <v>5.225543560862666E-05</v>
+        <v>0.0001897421181528864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1104,13 +1104,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H11">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I11">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J11">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>15.58828029679433</v>
+        <v>19.134513696296</v>
       </c>
       <c r="R11">
-        <v>93.529681780766</v>
+        <v>114.807082177776</v>
       </c>
       <c r="S11">
-        <v>0.03781407510312946</v>
+        <v>0.1268815381587349</v>
       </c>
       <c r="T11">
-        <v>0.0508885676040671</v>
+        <v>0.1741245186101815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1166,43 +1166,43 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H12">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I12">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J12">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>2.566723910341333</v>
+        <v>0.05942666155222222</v>
       </c>
       <c r="R12">
-        <v>23.100515193072</v>
+        <v>0.5348399539699999</v>
       </c>
       <c r="S12">
-        <v>0.006226362938483018</v>
+        <v>0.0003940599873643043</v>
       </c>
       <c r="T12">
-        <v>0.01256876006321633</v>
+        <v>0.0008111759984833535</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H13">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I13">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J13">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>0.02382092246244444</v>
+        <v>0.01514061093688889</v>
       </c>
       <c r="R13">
-        <v>0.214388302162</v>
+        <v>0.136265498432</v>
       </c>
       <c r="S13">
-        <v>5.778483154462758E-05</v>
+        <v>0.0001003978483501935</v>
       </c>
       <c r="T13">
-        <v>0.0001166465383006968</v>
+        <v>0.000206669866244902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H14">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I14">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J14">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>14.913791737788</v>
+        <v>23.257897174008</v>
       </c>
       <c r="R14">
-        <v>59.655166951152</v>
+        <v>93.03158869603199</v>
       </c>
       <c r="S14">
-        <v>0.03617789968538872</v>
+        <v>0.1542238185205132</v>
       </c>
       <c r="T14">
-        <v>0.03245778172795944</v>
+        <v>0.1410982692875435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H15">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I15">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J15">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>8.946049272361334</v>
+        <v>2.263753200243</v>
       </c>
       <c r="R15">
-        <v>53.676295634168</v>
+        <v>13.582519201458</v>
       </c>
       <c r="S15">
-        <v>0.02170134053407645</v>
+        <v>0.01501101583335203</v>
       </c>
       <c r="T15">
-        <v>0.02920473743851627</v>
+        <v>0.02060020664757596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H16">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I16">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J16">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.207938884656</v>
+        <v>0.06854018846700001</v>
       </c>
       <c r="R16">
-        <v>1.247633307936</v>
+        <v>0.411241130802</v>
       </c>
       <c r="S16">
-        <v>0.0005044184766718594</v>
+        <v>0.0004544920595534122</v>
       </c>
       <c r="T16">
-        <v>0.0006788248471197463</v>
+        <v>0.0006237173053725288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H17">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I17">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J17">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>303.749606124734</v>
+        <v>94.348008537444</v>
       </c>
       <c r="R17">
-        <v>1214.998424498936</v>
+        <v>377.392034149776</v>
       </c>
       <c r="S17">
-        <v>0.7368362769887282</v>
+        <v>0.6256244938047034</v>
       </c>
       <c r="T17">
-        <v>0.6610685323283556</v>
+        <v>0.5723793778844722</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H18">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I18">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J18">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>50.014585441952</v>
+        <v>0.293019580245</v>
       </c>
       <c r="R18">
-        <v>300.087512651712</v>
+        <v>1.75811748147</v>
       </c>
       <c r="S18">
-        <v>0.1213254608042163</v>
+        <v>0.001943021685432716</v>
       </c>
       <c r="T18">
-        <v>0.1632746245251677</v>
+        <v>0.002666484979097991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H19">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I19">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J19">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,400 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>0.4641689575586667</v>
+        <v>0.07465496707199999</v>
       </c>
       <c r="R19">
-        <v>2.785013745352</v>
+        <v>0.4479298024319999</v>
       </c>
       <c r="S19">
-        <v>0.001125981794494307</v>
+        <v>0.0004950393411419018</v>
       </c>
       <c r="T19">
-        <v>0.001515298219348231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.207235</v>
-      </c>
-      <c r="I20">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J20">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.533117</v>
-      </c>
-      <c r="N20">
-        <v>9.066234</v>
-      </c>
-      <c r="O20">
-        <v>0.0394235894695292</v>
-      </c>
-      <c r="P20">
-        <v>0.03654333378744622</v>
-      </c>
-      <c r="Q20">
-        <v>0.313140167165</v>
-      </c>
-      <c r="R20">
-        <v>1.87884100299</v>
-      </c>
-      <c r="S20">
-        <v>0.0007596159148754144</v>
-      </c>
-      <c r="T20">
-        <v>0.001022258662464646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.207235</v>
-      </c>
-      <c r="I21">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J21">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.719193666666667</v>
-      </c>
-      <c r="N21">
-        <v>8.157581</v>
-      </c>
-      <c r="O21">
-        <v>0.02364827000997559</v>
-      </c>
-      <c r="P21">
-        <v>0.03288081968556397</v>
-      </c>
-      <c r="Q21">
-        <v>0.1878373665038889</v>
-      </c>
-      <c r="R21">
-        <v>1.690536298535</v>
-      </c>
-      <c r="S21">
-        <v>0.00045565618201084</v>
-      </c>
-      <c r="T21">
-        <v>0.0009198039496892549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.207235</v>
-      </c>
-      <c r="I22">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J22">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.063204</v>
-      </c>
-      <c r="N22">
-        <v>0.189612</v>
-      </c>
-      <c r="O22">
-        <v>0.0005496722341011987</v>
-      </c>
-      <c r="P22">
-        <v>0.0007642704353434132</v>
-      </c>
-      <c r="Q22">
-        <v>0.00436602698</v>
-      </c>
-      <c r="R22">
-        <v>0.03929424282</v>
-      </c>
-      <c r="S22">
-        <v>1.059111518272873E-05</v>
-      </c>
-      <c r="T22">
-        <v>2.137960585478453E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.207235</v>
-      </c>
-      <c r="I23">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J23">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>92.32611850000001</v>
-      </c>
-      <c r="N23">
-        <v>184.652237</v>
-      </c>
-      <c r="O23">
-        <v>0.802941330007389</v>
-      </c>
-      <c r="P23">
-        <v>0.7442790833867324</v>
-      </c>
-      <c r="Q23">
-        <v>6.377734389115834</v>
-      </c>
-      <c r="R23">
-        <v>38.26640633469501</v>
-      </c>
-      <c r="S23">
-        <v>0.01547111821099553</v>
-      </c>
-      <c r="T23">
-        <v>0.02082037026804348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.207235</v>
-      </c>
-      <c r="I24">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J24">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>15.202168</v>
-      </c>
-      <c r="N24">
-        <v>45.606504</v>
-      </c>
-      <c r="O24">
-        <v>0.1322101393541825</v>
-      </c>
-      <c r="P24">
-        <v>0.1838264596469164</v>
-      </c>
-      <c r="Q24">
-        <v>1.050140428493333</v>
-      </c>
-      <c r="R24">
-        <v>9.451263856440001</v>
-      </c>
-      <c r="S24">
-        <v>0.002547432319397393</v>
-      </c>
-      <c r="T24">
-        <v>0.005142338459246534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.207235</v>
-      </c>
-      <c r="I25">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J25">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.1410863333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.4232590000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.001226998924822476</v>
-      </c>
-      <c r="P25">
-        <v>0.001706033057997478</v>
-      </c>
-      <c r="Q25">
-        <v>0.009746008762777779</v>
-      </c>
-      <c r="R25">
-        <v>0.08771407886500002</v>
-      </c>
-      <c r="S25">
-        <v>2.364188353651973E-05</v>
-      </c>
-      <c r="T25">
-        <v>4.772435602435628E-05</v>
+        <v>0.0006793619325578839</v>
       </c>
     </row>
   </sheetData>
